--- a/TestApp/bin/Debug/net6.0-windows/Resources/KFI_költségkövető_219.xlsx
+++ b/TestApp/bin/Debug/net6.0-windows/Resources/KFI_költségkövető_219.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\Munka\!PROJEKTEK\2020-1.1.2-PIACI-KFI-2021-00219_Smartek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9833842F-D05C-4619-AA56-6D400C451994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473ADD73-C52C-41C3-98D8-59C6F2A4465F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="256">
   <si>
     <t>Fennmaradó 
 egyenleg</t>
@@ -1089,9 +1089,6 @@
   </si>
   <si>
     <t>i</t>
-  </si>
-  <si>
-    <t>okmány</t>
   </si>
   <si>
     <t>Előlegek</t>
@@ -4300,7 +4297,7 @@
         <v>11934701</v>
       </c>
       <c r="K9" s="196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L9" s="197"/>
     </row>
@@ -4580,7 +4577,7 @@
         <v>118162026</v>
       </c>
       <c r="K17" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
@@ -4591,7 +4588,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K18" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
@@ -4645,7 +4642,7 @@
       <selection activeCell="H12" sqref="H12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-      <autoFilter ref="A3:L77" xr:uid="{D35BFA83-C8A7-462B-957D-B3E0588C7E7A}"/>
+      <autoFilter ref="A3:L77" xr:uid="{BDD14244-5394-4084-87E7-8F4FD78A562C}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -4666,11 +4663,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Munka2"/>
-  <dimension ref="A1:AF283"/>
+  <dimension ref="A1:AE283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4706,33 +4703,33 @@
     <col min="32" max="45" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="W1" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="G1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="AB1" t="s">
         <v>255</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="242"/>
       <c r="C2" s="242"/>
       <c r="D2" s="242"/>
@@ -4761,7 +4758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="117"/>
       <c r="B3" s="118" t="s">
         <v>145</v>
@@ -4823,7 +4820,7 @@
       <c r="AD3" s="210"/>
       <c r="AE3" s="210"/>
     </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="127" t="s">
         <v>149</v>
       </c>
@@ -4887,7 +4884,7 @@
         <v>63</v>
       </c>
       <c r="W4" s="221" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X4" s="37" t="s">
         <v>75</v>
@@ -4905,13 +4902,13 @@
         <v>5</v>
       </c>
       <c r="AD4" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE4" s="213" t="s">
         <v>237</v>
       </c>
-      <c r="AE4" s="213" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:31" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="139" t="s">
         <v>156</v>
       </c>
@@ -4969,7 +4966,7 @@
         <v>34</v>
       </c>
       <c r="W5" s="222" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X5" s="38" t="s">
         <v>25</v>
@@ -4981,20 +4978,17 @@
       <c r="AA5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AB5" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="AC5" s="209" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AD5" s="209" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AE5" s="209" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="189"/>
       <c r="B6" s="92"/>
       <c r="C6" s="95"/>
@@ -5024,10 +5018,10 @@
       <c r="AA6" s="182"/>
       <c r="AB6" s="168"/>
     </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="189"/>
       <c r="B7" s="92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" s="90" t="str">
         <f>VLOOKUP($F7,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -5098,7 +5092,7 @@
         <v>0.13</v>
       </c>
       <c r="W7" s="224" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X7" s="23">
         <v>45001</v>
@@ -5110,10 +5104,10 @@
       <c r="AA7" s="20"/>
       <c r="AB7" s="168"/>
     </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="189"/>
       <c r="B8" s="92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="90" t="str">
         <f>VLOOKUP($F8,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -5184,7 +5178,7 @@
         <v>0.13</v>
       </c>
       <c r="W8" s="224" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X8" s="23">
         <v>45001</v>
@@ -5196,10 +5190,10 @@
       <c r="AA8" s="20"/>
       <c r="AB8" s="168"/>
     </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="189"/>
       <c r="B9" s="92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="90" t="str">
         <f>VLOOKUP($F9,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -5270,7 +5264,7 @@
         <v>0.13</v>
       </c>
       <c r="W9" s="224" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X9" s="23">
         <v>45001</v>
@@ -5282,10 +5276,10 @@
       <c r="AA9" s="20"/>
       <c r="AB9" s="168"/>
     </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="189"/>
       <c r="B10" s="92" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" s="90" t="str">
         <f>VLOOKUP($F10,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -5305,7 +5299,7 @@
         <v>174</v>
       </c>
       <c r="H10" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I10" s="90" t="str">
         <f>VLOOKUP($F10,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -5355,7 +5349,7 @@
         <v>0.13</v>
       </c>
       <c r="W10" s="224" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X10" s="23">
         <v>44943</v>
@@ -5365,9 +5359,7 @@
       </c>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
-      <c r="AB10" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB10" s="168"/>
       <c r="AC10" s="8" t="str">
         <f>IF(VLOOKUP($W10,'Havi béradatok'!$B:$E,2,FALSE)=H10,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -5381,10 +5373,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="189"/>
       <c r="B11" s="92" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" s="90" t="str">
         <f>VLOOKUP($F11,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -5404,7 +5396,7 @@
         <v>174</v>
       </c>
       <c r="H11" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I11" s="90" t="str">
         <f>VLOOKUP($F11,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -5454,7 +5446,7 @@
         <v>0.13</v>
       </c>
       <c r="W11" s="224" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X11" s="23">
         <v>44943</v>
@@ -5464,9 +5456,7 @@
       </c>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
-      <c r="AB11" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB11" s="168"/>
       <c r="AC11" s="8" t="str">
         <f>IF(VLOOKUP($W11,'Havi béradatok'!$B:$E,2,FALSE)=H11,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -5480,10 +5470,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="189"/>
       <c r="B12" s="92" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" s="90" t="str">
         <f>VLOOKUP($F12,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -5503,7 +5493,7 @@
         <v>174</v>
       </c>
       <c r="H12" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I12" s="90" t="str">
         <f>VLOOKUP($F12,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -5555,7 +5545,7 @@
         <v>0.13</v>
       </c>
       <c r="W12" s="224" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X12" s="23">
         <v>44943</v>
@@ -5567,10 +5557,10 @@
       <c r="AA12" s="20"/>
       <c r="AB12" s="168"/>
     </row>
-    <row r="13" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="189"/>
       <c r="B13" s="92" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="90" t="str">
         <f>VLOOKUP($F13,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -5590,7 +5580,7 @@
         <v>174</v>
       </c>
       <c r="H13" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I13" s="90" t="str">
         <f>VLOOKUP($F13,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -5641,7 +5631,7 @@
         <v>0.13</v>
       </c>
       <c r="W13" s="224" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X13" s="23">
         <v>44943</v>
@@ -5653,12 +5643,12 @@
       <c r="AA13" s="20"/>
       <c r="AB13" s="168"/>
     </row>
-    <row r="14" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="208">
         <v>1</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="90" t="str">
         <f>VLOOKUP($F14,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -5738,16 +5728,14 @@
       </c>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
-      <c r="AB14" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="168"/>
+    </row>
+    <row r="15" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="208">
         <v>1</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="90" t="str">
         <f>VLOOKUP($F15,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -5827,16 +5815,14 @@
       </c>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
-      <c r="AB15" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="168"/>
+    </row>
+    <row r="16" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="208">
         <v>1</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="90" t="str">
         <f>VLOOKUP($F16,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -5916,16 +5902,14 @@
       </c>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
-      <c r="AB16" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="168"/>
     </row>
     <row r="17" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="208">
         <v>1</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="90" t="str">
         <f>VLOOKUP($F17,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -6005,16 +5989,14 @@
       </c>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
-      <c r="AB17" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB17" s="168"/>
     </row>
     <row r="18" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="208">
         <v>1</v>
       </c>
       <c r="B18" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="90" t="str">
         <f>VLOOKUP($F18,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -6094,16 +6076,14 @@
       </c>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
-      <c r="AB18" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="168"/>
     </row>
     <row r="19" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="208">
         <v>1</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" s="90" t="str">
         <f>VLOOKUP($F19,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -6183,14 +6163,12 @@
       </c>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
-      <c r="AB19" s="168">
-        <v>4</v>
-      </c>
+      <c r="AB19" s="168"/>
     </row>
     <row r="20" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="189"/>
       <c r="B20" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="90" t="str">
         <f>VLOOKUP($F20,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -6270,14 +6248,12 @@
       </c>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
-      <c r="AB20" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB20" s="168"/>
     </row>
     <row r="21" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="189"/>
       <c r="B21" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C21" s="90" t="str">
         <f>VLOOKUP($F21,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -6349,7 +6325,7 @@
         <v>0.13</v>
       </c>
       <c r="W21" s="224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X21" s="23">
         <v>44830</v>
@@ -6359,9 +6335,7 @@
       </c>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
-      <c r="AB21" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB21" s="168"/>
       <c r="AC21" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -6375,7 +6349,7 @@
     <row r="22" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="189"/>
       <c r="B22" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" s="90" t="str">
         <f>VLOOKUP($F22,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -6447,7 +6421,7 @@
         <v>0.13</v>
       </c>
       <c r="W22" s="224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X22" s="23">
         <v>44830</v>
@@ -6457,23 +6431,21 @@
       </c>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
-      <c r="AB22" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB22" s="168"/>
       <c r="AC22" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD22" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="AD22" s="211" t="s">
-        <v>250</v>
-      </c>
       <c r="AE22" s="211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="189"/>
       <c r="B23" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C23" s="90" t="str">
         <f>VLOOKUP($F23,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -6545,7 +6517,7 @@
         <v>0.13</v>
       </c>
       <c r="W23" s="224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X23" s="23">
         <v>44944</v>
@@ -6555,11 +6527,9 @@
       </c>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
-      <c r="AB23" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB23" s="168"/>
       <c r="AC23" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD23" s="219">
         <v>1</v>
@@ -6571,7 +6541,7 @@
     <row r="24" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="189"/>
       <c r="B24" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="90" t="str">
         <f>VLOOKUP($F24,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -6643,7 +6613,7 @@
         <v>0.13</v>
       </c>
       <c r="W24" s="224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X24" s="23">
         <v>44944</v>
@@ -6653,9 +6623,7 @@
       </c>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
-      <c r="AB24" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB24" s="168"/>
       <c r="AC24" s="8" t="str">
         <f>IF(VLOOKUP($W24,'Havi béradatok'!$B:$E,2,FALSE)=H24,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -6672,7 +6640,7 @@
     <row r="25" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="189"/>
       <c r="B25" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="90" t="str">
         <f>VLOOKUP($F25,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -6744,7 +6712,7 @@
         <v>0.13</v>
       </c>
       <c r="W25" s="224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X25" s="23">
         <v>44980</v>
@@ -6754,9 +6722,7 @@
       </c>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
-      <c r="AB25" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB25" s="168"/>
       <c r="AC25" s="8" t="str">
         <f>IF(VLOOKUP($W25,'Havi béradatok'!$B:$E,2,FALSE)=H25,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -6773,7 +6739,7 @@
     <row r="26" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="189"/>
       <c r="B26" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" s="90" t="str">
         <f>VLOOKUP($F26,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -6845,7 +6811,7 @@
         <v>0.13</v>
       </c>
       <c r="W26" s="224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X26" s="23">
         <v>44980</v>
@@ -6863,7 +6829,7 @@
     <row r="27" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="189"/>
       <c r="B27" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C27" s="90" t="str">
         <f>VLOOKUP($F27,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -6935,7 +6901,7 @@
         <v>0.13</v>
       </c>
       <c r="W27" s="224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X27" s="23">
         <v>44980</v>
@@ -6953,7 +6919,7 @@
     <row r="28" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="189"/>
       <c r="B28" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" s="90" t="str">
         <f>VLOOKUP($F28,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -7025,7 +6991,7 @@
         <v>0.13</v>
       </c>
       <c r="W28" s="224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X28" s="23">
         <v>44980</v>
@@ -7045,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="90" t="str">
         <f>VLOOKUP($F29,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -7125,16 +7091,14 @@
       </c>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
-      <c r="AB29" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB29" s="168"/>
     </row>
     <row r="30" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="208">
         <v>1</v>
       </c>
       <c r="B30" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C30" s="90" t="str">
         <f>VLOOKUP($F30,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -7214,16 +7178,14 @@
       </c>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
-      <c r="AB30" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB30" s="168"/>
     </row>
     <row r="31" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="208">
         <v>1</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" s="90" t="str">
         <f>VLOOKUP($F31,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -7303,16 +7265,14 @@
       </c>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
-      <c r="AB31" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB31" s="168"/>
     </row>
     <row r="32" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="208">
         <v>1</v>
       </c>
       <c r="B32" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="90" t="str">
         <f>VLOOKUP($F32,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -7392,16 +7352,14 @@
       </c>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
-      <c r="AB32" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB32" s="168"/>
     </row>
     <row r="33" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="208">
         <v>1</v>
       </c>
       <c r="B33" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" s="90" t="str">
         <f>VLOOKUP($F33,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -7481,16 +7439,14 @@
       </c>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
-      <c r="AB33" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB33" s="168"/>
     </row>
     <row r="34" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="208">
         <v>1</v>
       </c>
       <c r="B34" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" s="90" t="str">
         <f>VLOOKUP($F34,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -7570,14 +7526,12 @@
       </c>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
-      <c r="AB34" s="168">
-        <v>4</v>
-      </c>
+      <c r="AB34" s="168"/>
     </row>
     <row r="35" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="189"/>
       <c r="B35" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" s="90" t="str">
         <f>VLOOKUP($F35,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -7657,14 +7611,12 @@
       </c>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
-      <c r="AB35" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB35" s="168"/>
     </row>
     <row r="36" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="189"/>
       <c r="B36" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" s="90" t="str">
         <f>VLOOKUP($F36,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -7736,7 +7688,7 @@
         <v>0.13</v>
       </c>
       <c r="W36" s="224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X36" s="23">
         <v>44830</v>
@@ -7746,9 +7698,7 @@
       </c>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
-      <c r="AB36" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB36" s="168"/>
       <c r="AC36" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -7762,7 +7712,7 @@
     <row r="37" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="189"/>
       <c r="B37" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C37" s="90" t="str">
         <f>VLOOKUP($F37,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -7834,7 +7784,7 @@
         <v>0.13</v>
       </c>
       <c r="W37" s="224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X37" s="23">
         <v>44830</v>
@@ -7844,23 +7794,21 @@
       </c>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
-      <c r="AB37" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB37" s="168"/>
       <c r="AC37" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD37" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="AD37" s="211" t="s">
-        <v>250</v>
-      </c>
       <c r="AE37" s="211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="189"/>
       <c r="B38" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="90" t="str">
         <f>VLOOKUP($F38,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -7932,7 +7880,7 @@
         <v>0.13</v>
       </c>
       <c r="W38" s="224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X38" s="23">
         <v>44936</v>
@@ -7942,11 +7890,9 @@
       </c>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
-      <c r="AB38" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB38" s="168"/>
       <c r="AC38" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD38" s="211">
         <v>0</v>
@@ -7958,7 +7904,7 @@
     <row r="39" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="189"/>
       <c r="B39" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C39" s="90" t="str">
         <f>VLOOKUP($F39,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -8030,7 +7976,7 @@
         <v>0.13</v>
       </c>
       <c r="W39" s="224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X39" s="23">
         <v>44936</v>
@@ -8040,9 +7986,7 @@
       </c>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
-      <c r="AB39" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB39" s="168"/>
       <c r="AC39" s="8" t="str">
         <f>IF(VLOOKUP($W39,'Havi béradatok'!$B:$E,2,FALSE)=H39,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -8059,7 +8003,7 @@
     <row r="40" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="189"/>
       <c r="B40" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" s="90" t="str">
         <f>VLOOKUP($F40,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -8131,7 +8075,7 @@
         <v>0.13</v>
       </c>
       <c r="W40" s="224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X40" s="23">
         <v>44980</v>
@@ -8141,9 +8085,7 @@
       </c>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
-      <c r="AB40" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB40" s="168"/>
       <c r="AC40" s="8" t="str">
         <f>IF(VLOOKUP($W40,'Havi béradatok'!$B:$E,2,FALSE)=H40,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -8160,7 +8102,7 @@
     <row r="41" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="189"/>
       <c r="B41" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="90" t="str">
         <f>VLOOKUP($F41,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -8232,7 +8174,7 @@
         <v>0.13</v>
       </c>
       <c r="W41" s="224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X41" s="23">
         <v>44980</v>
@@ -8247,7 +8189,7 @@
     <row r="42" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="189"/>
       <c r="B42" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" s="90" t="str">
         <f>VLOOKUP($F42,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -8319,7 +8261,7 @@
         <v>0.13</v>
       </c>
       <c r="W42" s="224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X42" s="23">
         <v>44980</v>
@@ -8334,7 +8276,7 @@
     <row r="43" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="189"/>
       <c r="B43" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C43" s="90" t="str">
         <f>VLOOKUP($F43,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -8406,7 +8348,7 @@
         <v>0.13</v>
       </c>
       <c r="W43" s="224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X43" s="23">
         <v>44980</v>
@@ -8421,7 +8363,7 @@
     <row r="44" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="189"/>
       <c r="B44" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C44" s="90" t="str">
         <f>VLOOKUP($F44,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -8493,7 +8435,7 @@
         <v>0.13</v>
       </c>
       <c r="W44" s="224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X44" s="23">
         <v>44980</v>
@@ -8508,7 +8450,7 @@
     <row r="45" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="189"/>
       <c r="B45" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C45" s="90" t="str">
         <f>VLOOKUP($F45,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -8580,7 +8522,7 @@
         <v>0.13</v>
       </c>
       <c r="W45" s="224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X45" s="23">
         <v>44980</v>
@@ -8595,7 +8537,7 @@
     <row r="46" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="189"/>
       <c r="B46" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C46" s="90" t="str">
         <f>VLOOKUP($F46,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -8667,7 +8609,7 @@
         <v>0.13</v>
       </c>
       <c r="W46" s="224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X46" s="23">
         <v>44980</v>
@@ -8764,9 +8706,7 @@
       </c>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
-      <c r="AB47" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB47" s="168"/>
     </row>
     <row r="48" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="208">
@@ -8853,9 +8793,7 @@
       </c>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
-      <c r="AB48" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB48" s="168"/>
     </row>
     <row r="49" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="208">
@@ -8942,9 +8880,7 @@
       </c>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
-      <c r="AB49" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB49" s="168"/>
     </row>
     <row r="50" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="208">
@@ -9031,9 +8967,7 @@
       </c>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
-      <c r="AB50" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB50" s="168"/>
     </row>
     <row r="51" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="208">
@@ -9120,9 +9054,7 @@
       </c>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
-      <c r="AB51" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB51" s="168"/>
     </row>
     <row r="52" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="208">
@@ -9209,9 +9141,7 @@
       </c>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
-      <c r="AB52" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB52" s="168"/>
     </row>
     <row r="53" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="208">
@@ -9298,9 +9228,7 @@
       </c>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
-      <c r="AB53" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB53" s="168"/>
     </row>
     <row r="54" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="208">
@@ -9387,9 +9315,7 @@
       </c>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
-      <c r="AB54" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB54" s="168"/>
     </row>
     <row r="55" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="208">
@@ -9476,9 +9402,7 @@
       </c>
       <c r="Z55" s="20"/>
       <c r="AA55" s="20"/>
-      <c r="AB55" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB55" s="168"/>
     </row>
     <row r="56" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="208">
@@ -9565,9 +9489,7 @@
       </c>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
-      <c r="AB56" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB56" s="168"/>
     </row>
     <row r="57" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="208">
@@ -9654,9 +9576,7 @@
       </c>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
-      <c r="AB57" s="168">
-        <v>4</v>
-      </c>
+      <c r="AB57" s="168"/>
     </row>
     <row r="58" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="189"/>
@@ -9741,9 +9661,7 @@
       </c>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
-      <c r="AB58" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB58" s="168"/>
     </row>
     <row r="59" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="189"/>
@@ -9820,7 +9738,7 @@
         <v>0.13</v>
       </c>
       <c r="W59" s="224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X59" s="23">
         <v>44838</v>
@@ -9830,9 +9748,7 @@
       </c>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
-      <c r="AB59" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB59" s="168"/>
       <c r="AC59" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -9918,7 +9834,7 @@
         <v>0.13</v>
       </c>
       <c r="W60" s="224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X60" s="23">
         <v>44838</v>
@@ -9928,17 +9844,15 @@
       </c>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
-      <c r="AB60" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB60" s="168"/>
       <c r="AC60" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD60" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="AD60" s="211" t="s">
-        <v>250</v>
-      </c>
       <c r="AE60" s="211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10016,7 +9930,7 @@
         <v>0.13</v>
       </c>
       <c r="W61" s="224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X61" s="23">
         <v>44936</v>
@@ -10026,11 +9940,9 @@
       </c>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
-      <c r="AB61" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB61" s="168"/>
       <c r="AC61" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD61" s="211">
         <v>0</v>
@@ -10114,7 +10026,7 @@
         <v>0.13</v>
       </c>
       <c r="W62" s="224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X62" s="23">
         <v>44936</v>
@@ -10124,9 +10036,7 @@
       </c>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
-      <c r="AB62" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB62" s="168"/>
       <c r="AC62" s="8" t="str">
         <f>IF(VLOOKUP($W62,'Havi béradatok'!$B:$E,2,FALSE)=H62,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -10215,7 +10125,7 @@
         <v>0.13</v>
       </c>
       <c r="W63" s="224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X63" s="23">
         <v>44936</v>
@@ -10225,9 +10135,7 @@
       </c>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
-      <c r="AB63" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB63" s="168"/>
       <c r="AC63" s="8" t="str">
         <f>IF(VLOOKUP($W63,'Havi béradatok'!$B:$E,2,FALSE)=H63,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -10316,7 +10224,7 @@
         <v>0.13</v>
       </c>
       <c r="W64" s="224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X64" s="23">
         <v>45002</v>
@@ -10403,7 +10311,7 @@
         <v>0.13</v>
       </c>
       <c r="W65" s="224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X65" s="23">
         <v>45002</v>
@@ -10490,7 +10398,7 @@
         <v>0.13</v>
       </c>
       <c r="W66" s="224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X66" s="23">
         <v>45002</v>
@@ -10587,9 +10495,7 @@
       </c>
       <c r="Z67" s="20"/>
       <c r="AA67" s="20"/>
-      <c r="AB67" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB67" s="168"/>
     </row>
     <row r="68" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="208">
@@ -10675,9 +10581,7 @@
       </c>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
-      <c r="AB68" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB68" s="168"/>
     </row>
     <row r="69" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="208">
@@ -10763,9 +10667,7 @@
       </c>
       <c r="Z69" s="20"/>
       <c r="AA69" s="20"/>
-      <c r="AB69" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB69" s="168"/>
     </row>
     <row r="70" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="208">
@@ -10852,9 +10754,7 @@
       </c>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
-      <c r="AB70" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB70" s="168"/>
     </row>
     <row r="71" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="208">
@@ -10941,9 +10841,7 @@
       </c>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
-      <c r="AB71" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB71" s="168"/>
     </row>
     <row r="72" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="208">
@@ -11030,9 +10928,7 @@
       </c>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
-      <c r="AB72" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB72" s="168"/>
     </row>
     <row r="73" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="208">
@@ -11119,9 +11015,7 @@
       </c>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
-      <c r="AB73" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB73" s="168"/>
     </row>
     <row r="74" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="208">
@@ -11208,9 +11102,7 @@
       </c>
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
-      <c r="AB74" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB74" s="168"/>
     </row>
     <row r="75" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="208">
@@ -11297,9 +11189,7 @@
       </c>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
-      <c r="AB75" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB75" s="168"/>
     </row>
     <row r="76" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="208">
@@ -11384,9 +11274,7 @@
       </c>
       <c r="Z76" s="20"/>
       <c r="AA76" s="20"/>
-      <c r="AB76" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB76" s="168"/>
     </row>
     <row r="77" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="208">
@@ -11471,9 +11359,7 @@
       </c>
       <c r="Z77" s="20"/>
       <c r="AA77" s="20"/>
-      <c r="AB77" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB77" s="168"/>
     </row>
     <row r="78" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="208">
@@ -11558,9 +11444,7 @@
       </c>
       <c r="Z78" s="20"/>
       <c r="AA78" s="20"/>
-      <c r="AB78" s="168">
-        <v>4</v>
-      </c>
+      <c r="AB78" s="168"/>
     </row>
     <row r="79" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="189"/>
@@ -11645,9 +11529,7 @@
       </c>
       <c r="Z79" s="20"/>
       <c r="AA79" s="20"/>
-      <c r="AB79" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB79" s="168"/>
     </row>
     <row r="80" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="189"/>
@@ -11724,7 +11606,7 @@
         <v>0.13</v>
       </c>
       <c r="W80" s="224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X80" s="23">
         <v>44826</v>
@@ -11734,9 +11616,7 @@
       </c>
       <c r="Z80" s="20"/>
       <c r="AA80" s="20"/>
-      <c r="AB80" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB80" s="168"/>
       <c r="AC80" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -11822,7 +11702,7 @@
         <v>0.13</v>
       </c>
       <c r="W81" s="224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X81" s="23">
         <v>44826</v>
@@ -11832,17 +11712,15 @@
       </c>
       <c r="Z81" s="20"/>
       <c r="AA81" s="20"/>
-      <c r="AB81" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB81" s="168"/>
       <c r="AC81" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD81" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="AD81" s="211" t="s">
-        <v>250</v>
-      </c>
       <c r="AE81" s="219" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11920,7 +11798,7 @@
         <v>0.13</v>
       </c>
       <c r="W82" s="224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X82" s="23">
         <v>44944</v>
@@ -11930,11 +11808,9 @@
       </c>
       <c r="Z82" s="20"/>
       <c r="AA82" s="20"/>
-      <c r="AB82" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB82" s="168"/>
       <c r="AC82" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD82" s="211">
         <v>0</v>
@@ -12018,7 +11894,7 @@
         <v>0.13</v>
       </c>
       <c r="W83" s="224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X83" s="23">
         <v>44944</v>
@@ -12028,9 +11904,7 @@
       </c>
       <c r="Z83" s="20"/>
       <c r="AA83" s="20"/>
-      <c r="AB83" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB83" s="168"/>
       <c r="AC83" s="8" t="str">
         <f>IF(VLOOKUP($W83,'Havi béradatok'!$B:$E,2,FALSE)=H83,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -12119,7 +11993,7 @@
         <v>0.13</v>
       </c>
       <c r="W84" s="224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X84" s="23">
         <v>44980</v>
@@ -12129,9 +12003,7 @@
       </c>
       <c r="Z84" s="20"/>
       <c r="AA84" s="20"/>
-      <c r="AB84" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB84" s="168"/>
       <c r="AC84" s="8" t="str">
         <f>IF(VLOOKUP($W84,'Havi béradatok'!$B:$E,2,FALSE)=H84,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -12220,7 +12092,7 @@
         <v>0.13</v>
       </c>
       <c r="W85" s="224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X85" s="23">
         <v>44980</v>
@@ -12310,7 +12182,7 @@
         <v>0.13</v>
       </c>
       <c r="W86" s="224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X86" s="23">
         <v>44980</v>
@@ -12400,7 +12272,7 @@
         <v>0.13</v>
       </c>
       <c r="W87" s="224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X87" s="23">
         <v>44980</v>
@@ -12490,7 +12362,7 @@
         <v>0.13</v>
       </c>
       <c r="W88" s="224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X88" s="23">
         <v>44980</v>
@@ -12580,7 +12452,7 @@
         <v>0.13</v>
       </c>
       <c r="W89" s="224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X89" s="23">
         <v>44980</v>
@@ -12600,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C90" s="90" t="str">
         <f>VLOOKUP($F90,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -12620,7 +12492,7 @@
         <v>174</v>
       </c>
       <c r="H90" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I90" s="90" t="str">
         <f>VLOOKUP($F90,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -12679,16 +12551,14 @@
       </c>
       <c r="Z90" s="20"/>
       <c r="AA90" s="20"/>
-      <c r="AB90" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB90" s="168"/>
     </row>
     <row r="91" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="208">
         <v>1</v>
       </c>
       <c r="B91" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C91" s="90" t="str">
         <f>VLOOKUP($F91,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -12708,7 +12578,7 @@
         <v>174</v>
       </c>
       <c r="H91" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I91" s="90" t="str">
         <f>VLOOKUP($F91,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -12767,16 +12637,14 @@
       </c>
       <c r="Z91" s="20"/>
       <c r="AA91" s="20"/>
-      <c r="AB91" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB91" s="168"/>
     </row>
     <row r="92" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="208">
         <v>1</v>
       </c>
       <c r="B92" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C92" s="90" t="str">
         <f>VLOOKUP($F92,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -12796,7 +12664,7 @@
         <v>174</v>
       </c>
       <c r="H92" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I92" s="90" t="str">
         <f>VLOOKUP($F92,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -12856,16 +12724,14 @@
       </c>
       <c r="Z92" s="20"/>
       <c r="AA92" s="20"/>
-      <c r="AB92" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB92" s="168"/>
     </row>
     <row r="93" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="208">
         <v>1</v>
       </c>
       <c r="B93" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C93" s="90" t="str">
         <f>VLOOKUP($F93,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -12885,7 +12751,7 @@
         <v>174</v>
       </c>
       <c r="H93" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I93" s="90" t="str">
         <f>VLOOKUP($F93,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -12945,16 +12811,14 @@
       </c>
       <c r="Z93" s="20"/>
       <c r="AA93" s="20"/>
-      <c r="AB93" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB93" s="168"/>
     </row>
     <row r="94" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="208">
         <v>1</v>
       </c>
       <c r="B94" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C94" s="90" t="str">
         <f>VLOOKUP($F94,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -12974,7 +12838,7 @@
         <v>174</v>
       </c>
       <c r="H94" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I94" s="90" t="str">
         <f>VLOOKUP($F94,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -13034,16 +12898,14 @@
       </c>
       <c r="Z94" s="20"/>
       <c r="AA94" s="20"/>
-      <c r="AB94" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB94" s="168"/>
     </row>
     <row r="95" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="208">
         <v>1</v>
       </c>
       <c r="B95" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C95" s="90" t="str">
         <f>VLOOKUP($F95,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -13063,7 +12925,7 @@
         <v>174</v>
       </c>
       <c r="H95" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I95" s="90" t="str">
         <f>VLOOKUP($F95,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -13123,14 +12985,12 @@
       </c>
       <c r="Z95" s="20"/>
       <c r="AA95" s="20"/>
-      <c r="AB95" s="168">
-        <v>4</v>
-      </c>
+      <c r="AB95" s="168"/>
     </row>
     <row r="96" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="189"/>
       <c r="B96" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C96" s="90" t="str">
         <f>VLOOKUP($F96,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -13150,7 +13010,7 @@
         <v>174</v>
       </c>
       <c r="H96" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I96" s="90" t="str">
         <f>VLOOKUP($F96,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -13210,14 +13070,12 @@
       </c>
       <c r="Z96" s="20"/>
       <c r="AA96" s="20"/>
-      <c r="AB96" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB96" s="168"/>
     </row>
     <row r="97" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="189"/>
       <c r="B97" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C97" s="90" t="str">
         <f>VLOOKUP($F97,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -13237,7 +13095,7 @@
         <v>174</v>
       </c>
       <c r="H97" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I97" s="90" t="str">
         <f>VLOOKUP($F97,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -13289,7 +13147,7 @@
         <v>0.13</v>
       </c>
       <c r="W97" s="224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X97" s="23">
         <v>44875</v>
@@ -13299,9 +13157,7 @@
       </c>
       <c r="Z97" s="20"/>
       <c r="AA97" s="20"/>
-      <c r="AB97" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB97" s="168"/>
       <c r="AC97" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -13315,7 +13171,7 @@
     <row r="98" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="189"/>
       <c r="B98" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="90" t="str">
         <f>VLOOKUP($F98,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -13335,7 +13191,7 @@
         <v>174</v>
       </c>
       <c r="H98" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I98" s="90" t="str">
         <f>VLOOKUP($F98,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -13387,7 +13243,7 @@
         <v>0.13</v>
       </c>
       <c r="W98" s="224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X98" s="23">
         <v>44875</v>
@@ -13397,23 +13253,21 @@
       </c>
       <c r="Z98" s="20"/>
       <c r="AA98" s="20"/>
-      <c r="AB98" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB98" s="168"/>
       <c r="AC98" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD98" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="AD98" s="211" t="s">
-        <v>250</v>
-      </c>
       <c r="AE98" s="211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="189"/>
       <c r="B99" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C99" s="90" t="str">
         <f>VLOOKUP($F99,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -13433,7 +13287,7 @@
         <v>174</v>
       </c>
       <c r="H99" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I99" s="90" t="str">
         <f>VLOOKUP($F99,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -13485,7 +13339,7 @@
         <v>0.13</v>
       </c>
       <c r="W99" s="224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X99" s="23">
         <v>44944</v>
@@ -13495,11 +13349,9 @@
       </c>
       <c r="Z99" s="20"/>
       <c r="AA99" s="20"/>
-      <c r="AB99" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB99" s="168"/>
       <c r="AC99" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD99" s="211">
         <v>0</v>
@@ -13511,7 +13363,7 @@
     <row r="100" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="189"/>
       <c r="B100" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C100" s="90" t="str">
         <f>VLOOKUP($F100,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -13531,7 +13383,7 @@
         <v>174</v>
       </c>
       <c r="H100" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I100" s="90" t="str">
         <f>VLOOKUP($F100,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -13583,7 +13435,7 @@
         <v>0.13</v>
       </c>
       <c r="W100" s="224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X100" s="23">
         <v>44944</v>
@@ -13593,9 +13445,7 @@
       </c>
       <c r="Z100" s="20"/>
       <c r="AA100" s="20"/>
-      <c r="AB100" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB100" s="168"/>
       <c r="AC100" s="8" t="str">
         <f>IF(VLOOKUP($W100,'Havi béradatok'!$B:$E,2,FALSE)=H100,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -13612,7 +13462,7 @@
     <row r="101" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="189"/>
       <c r="B101" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C101" s="90" t="str">
         <f>VLOOKUP($F101,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -13632,7 +13482,7 @@
         <v>174</v>
       </c>
       <c r="H101" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I101" s="90" t="str">
         <f>VLOOKUP($F101,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -13684,7 +13534,7 @@
         <v>0.13</v>
       </c>
       <c r="W101" s="224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X101" s="23">
         <v>44980</v>
@@ -13694,9 +13544,7 @@
       </c>
       <c r="Z101" s="20"/>
       <c r="AA101" s="20"/>
-      <c r="AB101" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB101" s="168"/>
       <c r="AC101" s="8" t="str">
         <f>IF(VLOOKUP($W101,'Havi béradatok'!$B:$E,2,FALSE)=H101,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -13713,7 +13561,7 @@
     <row r="102" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="189"/>
       <c r="B102" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C102" s="90" t="str">
         <f>VLOOKUP($F102,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -13733,7 +13581,7 @@
         <v>174</v>
       </c>
       <c r="H102" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I102" s="90" t="str">
         <f>VLOOKUP($F102,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -13785,7 +13633,7 @@
         <v>0.13</v>
       </c>
       <c r="W102" s="224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X102" s="23">
         <v>45002</v>
@@ -13803,7 +13651,7 @@
     <row r="103" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="189"/>
       <c r="B103" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C103" s="90" t="str">
         <f>VLOOKUP($F103,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -13823,7 +13671,7 @@
         <v>174</v>
       </c>
       <c r="H103" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I103" s="90" t="str">
         <f>VLOOKUP($F103,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -13875,7 +13723,7 @@
         <v>0.13</v>
       </c>
       <c r="W103" s="224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X103" s="23">
         <v>45002</v>
@@ -13893,7 +13741,7 @@
     <row r="104" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="189"/>
       <c r="B104" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C104" s="90" t="str">
         <f>VLOOKUP($F104,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -13913,7 +13761,7 @@
         <v>174</v>
       </c>
       <c r="H104" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I104" s="90" t="str">
         <f>VLOOKUP($F104,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -13965,7 +13813,7 @@
         <v>0.13</v>
       </c>
       <c r="W104" s="224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X104" s="23">
         <v>45002</v>
@@ -13985,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="B105" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C105" s="90" t="str">
         <f>VLOOKUP($F105,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -14005,7 +13853,7 @@
         <v>174</v>
       </c>
       <c r="H105" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I105" s="90" t="str">
         <f>VLOOKUP($F105,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -14065,16 +13913,14 @@
       </c>
       <c r="Z105" s="20"/>
       <c r="AA105" s="20"/>
-      <c r="AB105" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB105" s="168"/>
     </row>
     <row r="106" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="208">
         <v>1</v>
       </c>
       <c r="B106" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C106" s="90" t="str">
         <f>VLOOKUP($F106,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -14094,7 +13940,7 @@
         <v>174</v>
       </c>
       <c r="H106" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I106" s="90" t="str">
         <f>VLOOKUP($F106,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -14154,16 +14000,14 @@
       </c>
       <c r="Z106" s="20"/>
       <c r="AA106" s="20"/>
-      <c r="AB106" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB106" s="168"/>
     </row>
     <row r="107" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="208">
         <v>1</v>
       </c>
       <c r="B107" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C107" s="90" t="str">
         <f>VLOOKUP($F107,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -14183,7 +14027,7 @@
         <v>174</v>
       </c>
       <c r="H107" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I107" s="90" t="str">
         <f>VLOOKUP($F107,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -14243,16 +14087,14 @@
       </c>
       <c r="Z107" s="20"/>
       <c r="AA107" s="20"/>
-      <c r="AB107" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB107" s="168"/>
     </row>
     <row r="108" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="208">
         <v>1</v>
       </c>
       <c r="B108" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C108" s="90" t="str">
         <f>VLOOKUP($F108,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -14272,7 +14114,7 @@
         <v>174</v>
       </c>
       <c r="H108" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I108" s="90" t="str">
         <f>VLOOKUP($F108,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -14332,16 +14174,14 @@
       </c>
       <c r="Z108" s="20"/>
       <c r="AA108" s="20"/>
-      <c r="AB108" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB108" s="168"/>
     </row>
     <row r="109" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="208">
         <v>1</v>
       </c>
       <c r="B109" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C109" s="90" t="str">
         <f>VLOOKUP($F109,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -14361,7 +14201,7 @@
         <v>174</v>
       </c>
       <c r="H109" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I109" s="90" t="str">
         <f>VLOOKUP($F109,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -14421,16 +14261,14 @@
       </c>
       <c r="Z109" s="20"/>
       <c r="AA109" s="20"/>
-      <c r="AB109" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB109" s="168"/>
     </row>
     <row r="110" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="208">
         <v>1</v>
       </c>
       <c r="B110" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C110" s="90" t="str">
         <f>VLOOKUP($F110,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -14450,7 +14288,7 @@
         <v>174</v>
       </c>
       <c r="H110" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I110" s="90" t="str">
         <f>VLOOKUP($F110,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -14510,14 +14348,12 @@
       </c>
       <c r="Z110" s="20"/>
       <c r="AA110" s="20"/>
-      <c r="AB110" s="168">
-        <v>4</v>
-      </c>
+      <c r="AB110" s="168"/>
     </row>
     <row r="111" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="189"/>
       <c r="B111" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C111" s="90" t="str">
         <f>VLOOKUP($F111,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -14537,7 +14373,7 @@
         <v>174</v>
       </c>
       <c r="H111" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I111" s="90" t="str">
         <f>VLOOKUP($F111,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -14597,14 +14433,12 @@
       </c>
       <c r="Z111" s="20"/>
       <c r="AA111" s="20"/>
-      <c r="AB111" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB111" s="168"/>
     </row>
     <row r="112" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="189"/>
       <c r="B112" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C112" s="90" t="str">
         <f>VLOOKUP($F112,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -14624,7 +14458,7 @@
         <v>174</v>
       </c>
       <c r="H112" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I112" s="90" t="str">
         <f>VLOOKUP($F112,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -14676,7 +14510,7 @@
         <v>0.13</v>
       </c>
       <c r="W112" s="224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X112" s="23">
         <v>44830</v>
@@ -14686,9 +14520,7 @@
       </c>
       <c r="Z112" s="20"/>
       <c r="AA112" s="20"/>
-      <c r="AB112" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB112" s="168"/>
       <c r="AC112" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -14702,7 +14534,7 @@
     <row r="113" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="189"/>
       <c r="B113" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C113" s="90" t="str">
         <f>VLOOKUP($F113,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -14722,7 +14554,7 @@
         <v>174</v>
       </c>
       <c r="H113" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I113" s="90" t="str">
         <f>VLOOKUP($F113,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -14774,7 +14606,7 @@
         <v>0.13</v>
       </c>
       <c r="W113" s="224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X113" s="23">
         <v>44830</v>
@@ -14784,23 +14616,21 @@
       </c>
       <c r="Z113" s="20"/>
       <c r="AA113" s="20"/>
-      <c r="AB113" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB113" s="168"/>
       <c r="AC113" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD113" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="AD113" s="211" t="s">
-        <v>250</v>
-      </c>
       <c r="AE113" s="219" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="189"/>
       <c r="B114" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C114" s="90" t="str">
         <f>VLOOKUP($F114,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -14820,7 +14650,7 @@
         <v>174</v>
       </c>
       <c r="H114" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I114" s="90" t="str">
         <f>VLOOKUP($F114,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -14872,7 +14702,7 @@
         <v>0.13</v>
       </c>
       <c r="W114" s="224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X114" s="23">
         <v>44943</v>
@@ -14882,11 +14712,9 @@
       </c>
       <c r="Z114" s="20"/>
       <c r="AA114" s="20"/>
-      <c r="AB114" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB114" s="168"/>
       <c r="AC114" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD114" s="211">
         <v>0</v>
@@ -14898,7 +14726,7 @@
     <row r="115" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="189"/>
       <c r="B115" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C115" s="90" t="str">
         <f>VLOOKUP($F115,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -14918,7 +14746,7 @@
         <v>174</v>
       </c>
       <c r="H115" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I115" s="90" t="str">
         <f>VLOOKUP($F115,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -14970,7 +14798,7 @@
         <v>0.13</v>
       </c>
       <c r="W115" s="224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X115" s="23">
         <v>44943</v>
@@ -14980,9 +14808,7 @@
       </c>
       <c r="Z115" s="20"/>
       <c r="AA115" s="20"/>
-      <c r="AB115" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB115" s="168"/>
       <c r="AC115" s="8" t="str">
         <f>IF(VLOOKUP($W115,'Havi béradatok'!$B:$E,2,FALSE)=H115,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -14999,7 +14825,7 @@
     <row r="116" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="189"/>
       <c r="B116" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C116" s="90" t="str">
         <f>VLOOKUP($F116,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -15019,7 +14845,7 @@
         <v>174</v>
       </c>
       <c r="H116" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I116" s="90" t="str">
         <f>VLOOKUP($F116,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -15071,7 +14897,7 @@
         <v>0.13</v>
       </c>
       <c r="W116" s="224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X116" s="23">
         <v>44943</v>
@@ -15081,9 +14907,7 @@
       </c>
       <c r="Z116" s="20"/>
       <c r="AA116" s="20"/>
-      <c r="AB116" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB116" s="168"/>
       <c r="AC116" s="8" t="str">
         <f>IF(VLOOKUP($W116,'Havi béradatok'!$B:$E,2,FALSE)=H116,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -15100,7 +14924,7 @@
     <row r="117" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="189"/>
       <c r="B117" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C117" s="90" t="str">
         <f>VLOOKUP($F117,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -15120,7 +14944,7 @@
         <v>174</v>
       </c>
       <c r="H117" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I117" s="90" t="str">
         <f>VLOOKUP($F117,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -15172,7 +14996,7 @@
         <v>0.13</v>
       </c>
       <c r="W117" s="224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X117" s="23">
         <v>44998</v>
@@ -15190,7 +15014,7 @@
     <row r="118" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="189"/>
       <c r="B118" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C118" s="90" t="str">
         <f>VLOOKUP($F118,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -15210,7 +15034,7 @@
         <v>174</v>
       </c>
       <c r="H118" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I118" s="90" t="str">
         <f>VLOOKUP($F118,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -15262,7 +15086,7 @@
         <v>0.13</v>
       </c>
       <c r="W118" s="224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X118" s="23">
         <v>44998</v>
@@ -15280,7 +15104,7 @@
     <row r="119" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="189"/>
       <c r="B119" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C119" s="90" t="str">
         <f>VLOOKUP($F119,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -15300,7 +15124,7 @@
         <v>174</v>
       </c>
       <c r="H119" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I119" s="90" t="str">
         <f>VLOOKUP($F119,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -15352,7 +15176,7 @@
         <v>0.13</v>
       </c>
       <c r="W119" s="224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X119" s="23">
         <v>44998</v>
@@ -15451,9 +15275,7 @@
       </c>
       <c r="Z120" s="20"/>
       <c r="AA120" s="20"/>
-      <c r="AB120" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB120" s="168"/>
     </row>
     <row r="121" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="208">
@@ -15540,9 +15362,7 @@
       </c>
       <c r="Z121" s="20"/>
       <c r="AA121" s="20"/>
-      <c r="AB121" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB121" s="168"/>
     </row>
     <row r="122" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="208">
@@ -15629,9 +15449,7 @@
       </c>
       <c r="Z122" s="20"/>
       <c r="AA122" s="20"/>
-      <c r="AB122" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB122" s="168"/>
     </row>
     <row r="123" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="208">
@@ -15718,9 +15536,7 @@
       </c>
       <c r="Z123" s="20"/>
       <c r="AA123" s="20"/>
-      <c r="AB123" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB123" s="168"/>
     </row>
     <row r="124" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="208">
@@ -15807,9 +15623,7 @@
       </c>
       <c r="Z124" s="20"/>
       <c r="AA124" s="20"/>
-      <c r="AB124" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB124" s="168"/>
     </row>
     <row r="125" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="208">
@@ -15896,9 +15710,7 @@
       </c>
       <c r="Z125" s="20"/>
       <c r="AA125" s="20"/>
-      <c r="AB125" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB125" s="168"/>
     </row>
     <row r="126" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="208">
@@ -15985,9 +15797,7 @@
       </c>
       <c r="Z126" s="20"/>
       <c r="AA126" s="20"/>
-      <c r="AB126" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB126" s="168"/>
     </row>
     <row r="127" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="208">
@@ -16074,9 +15884,7 @@
       </c>
       <c r="Z127" s="20"/>
       <c r="AA127" s="20"/>
-      <c r="AB127" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB127" s="168"/>
     </row>
     <row r="128" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="208">
@@ -16163,9 +15971,7 @@
       </c>
       <c r="Z128" s="20"/>
       <c r="AA128" s="20"/>
-      <c r="AB128" s="168">
-        <v>4</v>
-      </c>
+      <c r="AB128" s="168"/>
     </row>
     <row r="129" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="189"/>
@@ -16250,9 +16056,7 @@
       </c>
       <c r="Z129" s="20"/>
       <c r="AA129" s="20"/>
-      <c r="AB129" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB129" s="168"/>
     </row>
     <row r="130" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="189"/>
@@ -16329,7 +16133,7 @@
         <v>0.13</v>
       </c>
       <c r="W130" s="224" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X130" s="23">
         <v>44826</v>
@@ -16339,9 +16143,7 @@
       </c>
       <c r="Z130" s="20"/>
       <c r="AA130" s="20"/>
-      <c r="AB130" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB130" s="168"/>
       <c r="AC130" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -16427,7 +16229,7 @@
         <v>0.13</v>
       </c>
       <c r="W131" s="224" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X131" s="23">
         <v>44826</v>
@@ -16437,17 +16239,15 @@
       </c>
       <c r="Z131" s="20"/>
       <c r="AA131" s="20"/>
-      <c r="AB131" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB131" s="168"/>
       <c r="AC131" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD131" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AE131" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -16525,7 +16325,7 @@
         <v>0.13</v>
       </c>
       <c r="W132" s="224" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X132" s="23">
         <v>44908</v>
@@ -16535,11 +16335,9 @@
       </c>
       <c r="Z132" s="20"/>
       <c r="AA132" s="20"/>
-      <c r="AB132" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB132" s="168"/>
       <c r="AC132" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD132" s="211">
         <v>0</v>
@@ -16553,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="B133" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C133" s="90" t="str">
         <f>VLOOKUP($F133,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -16573,7 +16371,7 @@
         <v>174</v>
       </c>
       <c r="H133" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I133" s="90" t="str">
         <f>VLOOKUP($F133,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -16633,16 +16431,14 @@
       </c>
       <c r="Z133" s="20"/>
       <c r="AA133" s="20"/>
-      <c r="AB133" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB133" s="168"/>
     </row>
     <row r="134" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="208">
         <v>1</v>
       </c>
       <c r="B134" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C134" s="90" t="str">
         <f>VLOOKUP($F134,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -16662,7 +16458,7 @@
         <v>174</v>
       </c>
       <c r="H134" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I134" s="90" t="str">
         <f>VLOOKUP($F134,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -16722,16 +16518,14 @@
       </c>
       <c r="Z134" s="20"/>
       <c r="AA134" s="20"/>
-      <c r="AB134" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB134" s="168"/>
     </row>
     <row r="135" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="208">
         <v>1</v>
       </c>
       <c r="B135" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C135" s="90" t="str">
         <f>VLOOKUP($F135,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -16751,7 +16545,7 @@
         <v>174</v>
       </c>
       <c r="H135" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I135" s="90" t="str">
         <f>VLOOKUP($F135,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -16809,16 +16603,14 @@
       </c>
       <c r="Z135" s="20"/>
       <c r="AA135" s="20"/>
-      <c r="AB135" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB135" s="168"/>
     </row>
     <row r="136" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="208">
         <v>1</v>
       </c>
       <c r="B136" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C136" s="90" t="str">
         <f>VLOOKUP($F136,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -16838,7 +16630,7 @@
         <v>174</v>
       </c>
       <c r="H136" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I136" s="90" t="str">
         <f>VLOOKUP($F136,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -16898,14 +16690,12 @@
       </c>
       <c r="Z136" s="20"/>
       <c r="AA136" s="20"/>
-      <c r="AB136" s="168">
-        <v>4</v>
-      </c>
+      <c r="AB136" s="168"/>
     </row>
     <row r="137" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="189"/>
       <c r="B137" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C137" s="90" t="str">
         <f>VLOOKUP($F137,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -16925,7 +16715,7 @@
         <v>174</v>
       </c>
       <c r="H137" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I137" s="90" t="str">
         <f>VLOOKUP($F137,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -16985,14 +16775,12 @@
       </c>
       <c r="Z137" s="20"/>
       <c r="AA137" s="20"/>
-      <c r="AB137" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB137" s="168"/>
     </row>
     <row r="138" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="189"/>
       <c r="B138" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C138" s="90" t="str">
         <f>VLOOKUP($F138,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -17012,7 +16800,7 @@
         <v>174</v>
       </c>
       <c r="H138" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I138" s="90" t="str">
         <f>VLOOKUP($F138,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -17062,7 +16850,7 @@
         <v>0.13</v>
       </c>
       <c r="W138" s="224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X138" s="23">
         <v>44875</v>
@@ -17072,9 +16860,7 @@
       </c>
       <c r="Z138" s="20"/>
       <c r="AA138" s="20"/>
-      <c r="AB138" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB138" s="168"/>
       <c r="AC138" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -17088,7 +16874,7 @@
     <row r="139" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="189"/>
       <c r="B139" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C139" s="90" t="str">
         <f>VLOOKUP($F139,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -17108,7 +16894,7 @@
         <v>174</v>
       </c>
       <c r="H139" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I139" s="90" t="str">
         <f>VLOOKUP($F139,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -17159,7 +16945,7 @@
         <v>0.13</v>
       </c>
       <c r="W139" s="224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X139" s="23">
         <v>44875</v>
@@ -17169,23 +16955,21 @@
       </c>
       <c r="Z139" s="20"/>
       <c r="AA139" s="20"/>
-      <c r="AB139" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB139" s="168"/>
       <c r="AC139" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD139" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="AD139" s="211" t="s">
-        <v>250</v>
-      </c>
       <c r="AE139" s="211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="189"/>
       <c r="B140" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C140" s="90" t="str">
         <f>VLOOKUP($F140,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -17205,7 +16989,7 @@
         <v>174</v>
       </c>
       <c r="H140" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I140" s="90" t="str">
         <f>VLOOKUP($F140,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -17255,7 +17039,7 @@
         <v>0.13</v>
       </c>
       <c r="W140" s="224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X140" s="23">
         <v>44936</v>
@@ -17265,11 +17049,9 @@
       </c>
       <c r="Z140" s="20"/>
       <c r="AA140" s="20"/>
-      <c r="AB140" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB140" s="168"/>
       <c r="AC140" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD140" s="211">
         <v>0</v>
@@ -17281,7 +17063,7 @@
     <row r="141" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="189"/>
       <c r="B141" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C141" s="90" t="str">
         <f>VLOOKUP($F141,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -17301,7 +17083,7 @@
         <v>174</v>
       </c>
       <c r="H141" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I141" s="90" t="str">
         <f>VLOOKUP($F141,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -17352,7 +17134,7 @@
         <v>0.13</v>
       </c>
       <c r="W141" s="224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X141" s="23">
         <v>44936</v>
@@ -17362,9 +17144,7 @@
       </c>
       <c r="Z141" s="20"/>
       <c r="AA141" s="20"/>
-      <c r="AB141" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB141" s="168"/>
       <c r="AC141" s="8" t="str">
         <f>IF(VLOOKUP($W141,'Havi béradatok'!$B:$E,2,FALSE)=H141,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -17381,7 +17161,7 @@
     <row r="142" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="189"/>
       <c r="B142" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C142" s="90" t="str">
         <f>VLOOKUP($F142,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -17401,7 +17181,7 @@
         <v>174</v>
       </c>
       <c r="H142" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I142" s="90" t="str">
         <f>VLOOKUP($F142,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -17450,7 +17230,7 @@
         <v>0.13</v>
       </c>
       <c r="W142" s="224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X142" s="23">
         <v>44977</v>
@@ -17460,9 +17240,7 @@
       </c>
       <c r="Z142" s="20"/>
       <c r="AA142" s="20"/>
-      <c r="AB142" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB142" s="168"/>
       <c r="AC142" s="8" t="str">
         <f>IF(VLOOKUP($W142,'Havi béradatok'!$B:$E,2,FALSE)=H142,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -17479,7 +17257,7 @@
     <row r="143" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="189"/>
       <c r="B143" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C143" s="90" t="str">
         <f>VLOOKUP($F143,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -17499,7 +17277,7 @@
         <v>174</v>
       </c>
       <c r="H143" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I143" s="90" t="str">
         <f>VLOOKUP($F143,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -17551,7 +17329,7 @@
         <v>0.13</v>
       </c>
       <c r="W143" s="224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X143" s="23">
         <v>44977</v>
@@ -17566,7 +17344,7 @@
     <row r="144" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="189"/>
       <c r="B144" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C144" s="90" t="str">
         <f>VLOOKUP($F144,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -17586,7 +17364,7 @@
         <v>174</v>
       </c>
       <c r="H144" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I144" s="90" t="str">
         <f>VLOOKUP($F144,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -17638,7 +17416,7 @@
         <v>0.13</v>
       </c>
       <c r="W144" s="224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X144" s="23">
         <v>44977</v>
@@ -17653,7 +17431,7 @@
     <row r="145" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="189"/>
       <c r="B145" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C145" s="90" t="str">
         <f>VLOOKUP($F145,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -17673,7 +17451,7 @@
         <v>174</v>
       </c>
       <c r="H145" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I145" s="90" t="str">
         <f>VLOOKUP($F145,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -17725,7 +17503,7 @@
         <v>0.13</v>
       </c>
       <c r="W145" s="224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X145" s="23">
         <v>44977</v>
@@ -17742,7 +17520,7 @@
         <v>1</v>
       </c>
       <c r="B146" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C146" s="90" t="str">
         <f>VLOOKUP($F146,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -17822,16 +17600,14 @@
       </c>
       <c r="Z146" s="20"/>
       <c r="AA146" s="20"/>
-      <c r="AB146" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB146" s="168"/>
     </row>
     <row r="147" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="208">
         <v>1</v>
       </c>
       <c r="B147" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C147" s="90" t="str">
         <f>VLOOKUP($F147,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -17911,16 +17687,14 @@
       </c>
       <c r="Z147" s="20"/>
       <c r="AA147" s="20"/>
-      <c r="AB147" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB147" s="168"/>
     </row>
     <row r="148" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="208">
         <v>1</v>
       </c>
       <c r="B148" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C148" s="90" t="str">
         <f>VLOOKUP($F148,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -18000,16 +17774,14 @@
       </c>
       <c r="Z148" s="20"/>
       <c r="AA148" s="20"/>
-      <c r="AB148" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB148" s="168"/>
     </row>
     <row r="149" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="208">
         <v>1</v>
       </c>
       <c r="B149" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C149" s="90" t="str">
         <f>VLOOKUP($F149,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -18089,16 +17861,14 @@
       </c>
       <c r="Z149" s="20"/>
       <c r="AA149" s="20"/>
-      <c r="AB149" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB149" s="168"/>
     </row>
     <row r="150" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="208">
         <v>1</v>
       </c>
       <c r="B150" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C150" s="90" t="str">
         <f>VLOOKUP($F150,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -18178,16 +17948,14 @@
       </c>
       <c r="Z150" s="20"/>
       <c r="AA150" s="20"/>
-      <c r="AB150" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB150" s="168"/>
     </row>
     <row r="151" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="208">
         <v>1</v>
       </c>
       <c r="B151" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C151" s="90" t="str">
         <f>VLOOKUP($F151,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -18267,14 +18035,12 @@
       </c>
       <c r="Z151" s="20"/>
       <c r="AA151" s="20"/>
-      <c r="AB151" s="168">
-        <v>5</v>
-      </c>
+      <c r="AB151" s="168"/>
     </row>
     <row r="152" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="189"/>
       <c r="B152" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C152" s="90" t="str">
         <f>VLOOKUP($F152,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -18354,14 +18120,12 @@
       </c>
       <c r="Z152" s="20"/>
       <c r="AA152" s="20"/>
-      <c r="AB152" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB152" s="168"/>
     </row>
     <row r="153" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="189"/>
       <c r="B153" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C153" s="90" t="str">
         <f>VLOOKUP($F153,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -18433,7 +18197,7 @@
         <v>0.13</v>
       </c>
       <c r="W153" s="224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X153" s="23">
         <v>44799</v>
@@ -18443,9 +18207,7 @@
       </c>
       <c r="Z153" s="20"/>
       <c r="AA153" s="20"/>
-      <c r="AB153" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB153" s="168"/>
       <c r="AC153" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -18459,7 +18221,7 @@
     <row r="154" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="189"/>
       <c r="B154" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C154" s="90" t="str">
         <f>VLOOKUP($F154,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -18531,7 +18293,7 @@
         <v>0.13</v>
       </c>
       <c r="W154" s="224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X154" s="23">
         <v>44799</v>
@@ -18541,23 +18303,21 @@
       </c>
       <c r="Z154" s="20"/>
       <c r="AA154" s="20"/>
-      <c r="AB154" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB154" s="168"/>
       <c r="AC154" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD154" s="219" t="s">
         <v>249</v>
       </c>
-      <c r="AD154" s="219" t="s">
-        <v>250</v>
-      </c>
       <c r="AE154" s="211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="155" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="189"/>
       <c r="B155" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C155" s="90" t="str">
         <f>VLOOKUP($F155,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -18629,7 +18389,7 @@
         <v>0.13</v>
       </c>
       <c r="W155" s="224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X155" s="23">
         <v>44945</v>
@@ -18639,11 +18399,9 @@
       </c>
       <c r="Z155" s="20"/>
       <c r="AA155" s="20"/>
-      <c r="AB155" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB155" s="168"/>
       <c r="AC155" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD155" s="211">
         <v>0</v>
@@ -18655,7 +18413,7 @@
     <row r="156" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="189"/>
       <c r="B156" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C156" s="90" t="str">
         <f>VLOOKUP($F156,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -18675,7 +18433,7 @@
         <v>174</v>
       </c>
       <c r="H156" s="161" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I156" s="90" t="str">
         <f>VLOOKUP($F156,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -18727,7 +18485,7 @@
         <v>0.13</v>
       </c>
       <c r="W156" s="224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X156" s="23">
         <v>44945</v>
@@ -18737,9 +18495,7 @@
       </c>
       <c r="Z156" s="20"/>
       <c r="AA156" s="20"/>
-      <c r="AB156" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB156" s="168"/>
       <c r="AC156" s="8" t="str">
         <f>IF(VLOOKUP($W156,'Havi béradatok'!$B:$E,2,FALSE)=H156,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -18756,7 +18512,7 @@
     <row r="157" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="189"/>
       <c r="B157" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C157" s="90" t="str">
         <f>VLOOKUP($F157,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -18776,7 +18532,7 @@
         <v>174</v>
       </c>
       <c r="H157" s="161" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I157" s="90" t="str">
         <f>VLOOKUP($F157,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -18828,7 +18584,7 @@
         <v>0.13</v>
       </c>
       <c r="W157" s="224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X157" s="23">
         <v>44945</v>
@@ -18838,9 +18594,7 @@
       </c>
       <c r="Z157" s="20"/>
       <c r="AA157" s="20"/>
-      <c r="AB157" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB157" s="168"/>
       <c r="AC157" s="8" t="str">
         <f>IF(VLOOKUP($W157,'Havi béradatok'!$B:$E,2,FALSE)=H157,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -18859,7 +18613,7 @@
         <v>1</v>
       </c>
       <c r="B158" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C158" s="90" t="str">
         <f>VLOOKUP($F158,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -18879,7 +18633,7 @@
         <v>174</v>
       </c>
       <c r="H158" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I158" s="90" t="str">
         <f>VLOOKUP($F158,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -18939,16 +18693,14 @@
       </c>
       <c r="Z158" s="20"/>
       <c r="AA158" s="20"/>
-      <c r="AB158" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB158" s="168"/>
     </row>
     <row r="159" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="208">
         <v>1</v>
       </c>
       <c r="B159" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C159" s="90" t="str">
         <f>VLOOKUP($F159,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -18968,7 +18720,7 @@
         <v>174</v>
       </c>
       <c r="H159" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I159" s="90" t="str">
         <f>VLOOKUP($F159,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -19028,16 +18780,14 @@
       </c>
       <c r="Z159" s="20"/>
       <c r="AA159" s="20"/>
-      <c r="AB159" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB159" s="168"/>
     </row>
     <row r="160" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="208">
         <v>1</v>
       </c>
       <c r="B160" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C160" s="90" t="str">
         <f>VLOOKUP($F160,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -19057,7 +18807,7 @@
         <v>174</v>
       </c>
       <c r="H160" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I160" s="90" t="str">
         <f>VLOOKUP($F160,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -19117,16 +18867,14 @@
       </c>
       <c r="Z160" s="20"/>
       <c r="AA160" s="20"/>
-      <c r="AB160" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB160" s="168"/>
     </row>
     <row r="161" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="208">
         <v>1</v>
       </c>
       <c r="B161" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C161" s="90" t="str">
         <f>VLOOKUP($F161,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -19146,7 +18894,7 @@
         <v>174</v>
       </c>
       <c r="H161" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I161" s="90" t="str">
         <f>VLOOKUP($F161,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -19206,16 +18954,14 @@
       </c>
       <c r="Z161" s="20"/>
       <c r="AA161" s="20"/>
-      <c r="AB161" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB161" s="168"/>
     </row>
     <row r="162" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="208">
         <v>1</v>
       </c>
       <c r="B162" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C162" s="90" t="str">
         <f>VLOOKUP($F162,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -19235,7 +18981,7 @@
         <v>174</v>
       </c>
       <c r="H162" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I162" s="90" t="str">
         <f>VLOOKUP($F162,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -19295,16 +19041,14 @@
       </c>
       <c r="Z162" s="20"/>
       <c r="AA162" s="20"/>
-      <c r="AB162" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB162" s="168"/>
     </row>
     <row r="163" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="208">
         <v>1</v>
       </c>
       <c r="B163" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C163" s="90" t="str">
         <f>VLOOKUP($F163,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -19324,7 +19068,7 @@
         <v>174</v>
       </c>
       <c r="H163" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I163" s="90" t="str">
         <f>VLOOKUP($F163,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -19384,14 +19128,12 @@
       </c>
       <c r="Z163" s="20"/>
       <c r="AA163" s="20"/>
-      <c r="AB163" s="168">
-        <v>4</v>
-      </c>
+      <c r="AB163" s="168"/>
     </row>
     <row r="164" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="189"/>
       <c r="B164" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C164" s="90" t="str">
         <f>VLOOKUP($F164,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -19411,7 +19153,7 @@
         <v>174</v>
       </c>
       <c r="H164" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I164" s="90" t="str">
         <f>VLOOKUP($F164,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -19471,14 +19213,12 @@
       </c>
       <c r="Z164" s="20"/>
       <c r="AA164" s="20"/>
-      <c r="AB164" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB164" s="168"/>
     </row>
     <row r="165" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="189"/>
       <c r="B165" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C165" s="90" t="str">
         <f>VLOOKUP($F165,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -19498,7 +19238,7 @@
         <v>174</v>
       </c>
       <c r="H165" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I165" s="90" t="str">
         <f>VLOOKUP($F165,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -19550,7 +19290,7 @@
         <v>0.13</v>
       </c>
       <c r="W165" s="224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X165" s="23">
         <v>44830</v>
@@ -19560,9 +19300,7 @@
       </c>
       <c r="Z165" s="20"/>
       <c r="AA165" s="20"/>
-      <c r="AB165" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB165" s="168"/>
       <c r="AC165" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -19576,7 +19314,7 @@
     <row r="166" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="189"/>
       <c r="B166" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C166" s="90" t="str">
         <f>VLOOKUP($F166,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -19596,7 +19334,7 @@
         <v>174</v>
       </c>
       <c r="H166" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I166" s="90" t="str">
         <f>VLOOKUP($F166,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -19648,7 +19386,7 @@
         <v>0.13</v>
       </c>
       <c r="W166" s="224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X166" s="23">
         <v>44830</v>
@@ -19658,23 +19396,21 @@
       </c>
       <c r="Z166" s="20"/>
       <c r="AA166" s="20"/>
-      <c r="AB166" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB166" s="168"/>
       <c r="AC166" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD166" s="219" t="s">
         <v>249</v>
       </c>
-      <c r="AD166" s="219" t="s">
-        <v>250</v>
-      </c>
       <c r="AE166" s="211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="167" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="189"/>
       <c r="B167" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C167" s="90" t="str">
         <f>VLOOKUP($F167,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -19694,7 +19430,7 @@
         <v>174</v>
       </c>
       <c r="H167" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I167" s="90" t="str">
         <f>VLOOKUP($F167,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -19746,7 +19482,7 @@
         <v>0.13</v>
       </c>
       <c r="W167" s="224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X167" s="23">
         <v>44938</v>
@@ -19756,11 +19492,9 @@
       </c>
       <c r="Z167" s="20"/>
       <c r="AA167" s="20"/>
-      <c r="AB167" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB167" s="168"/>
       <c r="AC167" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD167" s="219">
         <v>1</v>
@@ -19772,7 +19506,7 @@
     <row r="168" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="189"/>
       <c r="B168" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C168" s="90" t="str">
         <f>VLOOKUP($F168,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -19792,7 +19526,7 @@
         <v>174</v>
       </c>
       <c r="H168" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I168" s="90" t="str">
         <f>VLOOKUP($F168,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -19844,7 +19578,7 @@
         <v>0.13</v>
       </c>
       <c r="W168" s="224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X168" s="23">
         <v>44938</v>
@@ -19854,9 +19588,7 @@
       </c>
       <c r="Z168" s="20"/>
       <c r="AA168" s="20"/>
-      <c r="AB168" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB168" s="168"/>
       <c r="AC168" s="8" t="str">
         <f>IF(VLOOKUP($W168,'Havi béradatok'!$B:$E,2,FALSE)=H168,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -19873,7 +19605,7 @@
     <row r="169" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="189"/>
       <c r="B169" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C169" s="90" t="str">
         <f>VLOOKUP($F169,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -19893,7 +19625,7 @@
         <v>174</v>
       </c>
       <c r="H169" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I169" s="90" t="str">
         <f>VLOOKUP($F169,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -19945,7 +19677,7 @@
         <v>0.13</v>
       </c>
       <c r="W169" s="224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X169" s="23">
         <v>44938</v>
@@ -19955,9 +19687,7 @@
       </c>
       <c r="Z169" s="20"/>
       <c r="AA169" s="20"/>
-      <c r="AB169" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB169" s="168"/>
       <c r="AC169" s="8" t="str">
         <f>IF(VLOOKUP($W169,'Havi béradatok'!$B:$E,2,FALSE)=H169,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -19974,7 +19704,7 @@
     <row r="170" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="189"/>
       <c r="B170" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C170" s="90" t="str">
         <f>VLOOKUP($F170,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -19994,7 +19724,7 @@
         <v>174</v>
       </c>
       <c r="H170" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I170" s="90" t="str">
         <f>VLOOKUP($F170,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -20046,7 +19776,7 @@
         <v>0.13</v>
       </c>
       <c r="W170" s="224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X170" s="23">
         <v>45002</v>
@@ -20061,7 +19791,7 @@
     <row r="171" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="189"/>
       <c r="B171" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C171" s="90" t="str">
         <f>VLOOKUP($F171,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -20081,7 +19811,7 @@
         <v>174</v>
       </c>
       <c r="H171" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I171" s="90" t="str">
         <f>VLOOKUP($F171,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -20133,7 +19863,7 @@
         <v>0.13</v>
       </c>
       <c r="W171" s="224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X171" s="23">
         <v>45002</v>
@@ -20148,7 +19878,7 @@
     <row r="172" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="189"/>
       <c r="B172" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C172" s="90" t="str">
         <f>VLOOKUP($F172,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -20168,7 +19898,7 @@
         <v>174</v>
       </c>
       <c r="H172" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I172" s="90" t="str">
         <f>VLOOKUP($F172,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -20220,7 +19950,7 @@
         <v>0.13</v>
       </c>
       <c r="W172" s="224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X172" s="23">
         <v>45002</v>
@@ -20235,7 +19965,7 @@
     <row r="173" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="189"/>
       <c r="B173" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C173" s="90" t="str">
         <f>VLOOKUP($F173,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -20255,7 +19985,7 @@
         <v>174</v>
       </c>
       <c r="H173" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I173" s="90" t="str">
         <f>VLOOKUP($F173,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -20307,7 +20037,7 @@
         <v>0.13</v>
       </c>
       <c r="W173" s="224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X173" s="23">
         <v>45002</v>
@@ -20322,7 +20052,7 @@
     <row r="174" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="189"/>
       <c r="B174" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C174" s="90" t="str">
         <f>VLOOKUP($F174,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -20342,7 +20072,7 @@
         <v>174</v>
       </c>
       <c r="H174" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I174" s="90" t="str">
         <f>VLOOKUP($F174,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -20394,7 +20124,7 @@
         <v>0.13</v>
       </c>
       <c r="W174" s="224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X174" s="23">
         <v>45002</v>
@@ -20411,7 +20141,7 @@
         <v>1</v>
       </c>
       <c r="B175" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C175" s="90" t="str">
         <f>VLOOKUP($F175,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -20491,16 +20221,14 @@
       </c>
       <c r="Z175" s="20"/>
       <c r="AA175" s="20"/>
-      <c r="AB175" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB175" s="168"/>
     </row>
     <row r="176" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="208">
         <v>1</v>
       </c>
       <c r="B176" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C176" s="90" t="str">
         <f>VLOOKUP($F176,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -20580,16 +20308,14 @@
       </c>
       <c r="Z176" s="20"/>
       <c r="AA176" s="20"/>
-      <c r="AB176" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB176" s="168"/>
     </row>
     <row r="177" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="208">
         <v>1</v>
       </c>
       <c r="B177" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C177" s="90" t="str">
         <f>VLOOKUP($F177,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -20669,16 +20395,14 @@
       </c>
       <c r="Z177" s="20"/>
       <c r="AA177" s="20"/>
-      <c r="AB177" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB177" s="168"/>
     </row>
     <row r="178" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="208">
         <v>1</v>
       </c>
       <c r="B178" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C178" s="90" t="str">
         <f>VLOOKUP($F178,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -20758,16 +20482,14 @@
       </c>
       <c r="Z178" s="20"/>
       <c r="AA178" s="20"/>
-      <c r="AB178" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB178" s="168"/>
     </row>
     <row r="179" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="208">
         <v>1</v>
       </c>
       <c r="B179" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C179" s="90" t="str">
         <f>VLOOKUP($F179,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -20847,16 +20569,14 @@
       </c>
       <c r="Z179" s="20"/>
       <c r="AA179" s="20"/>
-      <c r="AB179" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB179" s="168"/>
     </row>
     <row r="180" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="208">
         <v>1</v>
       </c>
       <c r="B180" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C180" s="90" t="str">
         <f>VLOOKUP($F180,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -20936,14 +20656,12 @@
       </c>
       <c r="Z180" s="20"/>
       <c r="AA180" s="20"/>
-      <c r="AB180" s="168">
-        <v>4</v>
-      </c>
+      <c r="AB180" s="168"/>
     </row>
     <row r="181" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="189"/>
       <c r="B181" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C181" s="90" t="str">
         <f>VLOOKUP($F181,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -21023,14 +20741,12 @@
       </c>
       <c r="Z181" s="20"/>
       <c r="AA181" s="20"/>
-      <c r="AB181" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB181" s="168"/>
     </row>
     <row r="182" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="189"/>
       <c r="B182" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C182" s="90" t="str">
         <f>VLOOKUP($F182,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -21102,7 +20818,7 @@
         <v>0.13</v>
       </c>
       <c r="W182" s="224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X182" s="23">
         <v>44830</v>
@@ -21112,9 +20828,7 @@
       </c>
       <c r="Z182" s="20"/>
       <c r="AA182" s="20"/>
-      <c r="AB182" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB182" s="168"/>
       <c r="AC182" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -21128,7 +20842,7 @@
     <row r="183" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="189"/>
       <c r="B183" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C183" s="90" t="str">
         <f>VLOOKUP($F183,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -21200,7 +20914,7 @@
         <v>0.13</v>
       </c>
       <c r="W183" s="224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X183" s="23">
         <v>44830</v>
@@ -21210,23 +20924,21 @@
       </c>
       <c r="Z183" s="20"/>
       <c r="AA183" s="20"/>
-      <c r="AB183" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB183" s="168"/>
       <c r="AC183" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD183" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="AD183" s="211" t="s">
-        <v>250</v>
-      </c>
       <c r="AE183" s="211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="189"/>
       <c r="B184" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C184" s="90" t="str">
         <f>VLOOKUP($F184,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -21298,7 +21010,7 @@
         <v>0.13</v>
       </c>
       <c r="W184" s="224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X184" s="23">
         <v>44944</v>
@@ -21308,11 +21020,9 @@
       </c>
       <c r="Z184" s="20"/>
       <c r="AA184" s="20"/>
-      <c r="AB184" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB184" s="168"/>
       <c r="AC184" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD184" s="211">
         <v>0</v>
@@ -21324,7 +21034,7 @@
     <row r="185" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="189"/>
       <c r="B185" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C185" s="90" t="str">
         <f>VLOOKUP($F185,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -21396,7 +21106,7 @@
         <v>0.13</v>
       </c>
       <c r="W185" s="224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X185" s="23">
         <v>44944</v>
@@ -21406,9 +21116,7 @@
       </c>
       <c r="Z185" s="20"/>
       <c r="AA185" s="20"/>
-      <c r="AB185" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB185" s="168"/>
       <c r="AC185" s="8" t="str">
         <f>IF(VLOOKUP($W185,'Havi béradatok'!$B:$E,2,FALSE)=H185,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -21425,7 +21133,7 @@
     <row r="186" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="189"/>
       <c r="B186" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C186" s="90" t="str">
         <f>VLOOKUP($F186,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -21497,7 +21205,7 @@
         <v>0.13</v>
       </c>
       <c r="W186" s="224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X186" s="23">
         <v>44980</v>
@@ -21507,9 +21215,7 @@
       </c>
       <c r="Z186" s="20"/>
       <c r="AA186" s="20"/>
-      <c r="AB186" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB186" s="168"/>
       <c r="AC186" s="8" t="str">
         <f>IF(VLOOKUP($W186,'Havi béradatok'!$B:$E,2,FALSE)=H186,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -21526,7 +21232,7 @@
     <row r="187" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="189"/>
       <c r="B187" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C187" s="90" t="str">
         <f>VLOOKUP($F187,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -21598,7 +21304,7 @@
         <v>0.13</v>
       </c>
       <c r="W187" s="224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X187" s="23">
         <v>44980</v>
@@ -21616,7 +21322,7 @@
     <row r="188" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="189"/>
       <c r="B188" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C188" s="90" t="str">
         <f>VLOOKUP($F188,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -21688,7 +21394,7 @@
         <v>0.13</v>
       </c>
       <c r="W188" s="224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X188" s="23">
         <v>45041</v>
@@ -21704,7 +21410,7 @@
     <row r="189" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="189"/>
       <c r="B189" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C189" s="90" t="str">
         <f>VLOOKUP($F189,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -21776,7 +21482,7 @@
         <v>0.13</v>
       </c>
       <c r="W189" s="224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X189" s="23">
         <v>45041</v>
@@ -21794,7 +21500,7 @@
         <v>1</v>
       </c>
       <c r="B190" s="92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C190" s="90" t="str">
         <f>VLOOKUP($F190,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -21874,14 +21580,12 @@
       </c>
       <c r="Z190" s="20"/>
       <c r="AA190" s="20"/>
-      <c r="AB190" s="168">
-        <v>4</v>
-      </c>
+      <c r="AB190" s="168"/>
     </row>
     <row r="191" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="189"/>
       <c r="B191" s="92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C191" s="90" t="str">
         <f>VLOOKUP($F191,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -21961,14 +21665,12 @@
       </c>
       <c r="Z191" s="20"/>
       <c r="AA191" s="20"/>
-      <c r="AB191" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB191" s="168"/>
     </row>
     <row r="192" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="189"/>
       <c r="B192" s="92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C192" s="90" t="str">
         <f>VLOOKUP($F192,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -22040,7 +21742,7 @@
         <v>0.13</v>
       </c>
       <c r="W192" s="224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X192" s="23">
         <v>44825</v>
@@ -22050,9 +21752,7 @@
       </c>
       <c r="Z192" s="20"/>
       <c r="AA192" s="20"/>
-      <c r="AB192" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB192" s="168"/>
       <c r="AC192" s="212" t="e">
         <v>#N/A</v>
       </c>
@@ -22066,7 +21766,7 @@
     <row r="193" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="189"/>
       <c r="B193" s="92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C193" s="90" t="str">
         <f>VLOOKUP($F193,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -22138,7 +21838,7 @@
         <v>0.13</v>
       </c>
       <c r="W193" s="224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X193" s="23">
         <v>44825</v>
@@ -22148,23 +21848,21 @@
       </c>
       <c r="Z193" s="20"/>
       <c r="AA193" s="20"/>
-      <c r="AB193" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB193" s="168"/>
       <c r="AC193" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD193" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="AD193" s="211" t="s">
-        <v>250</v>
-      </c>
       <c r="AE193" s="211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="189"/>
       <c r="B194" s="92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C194" s="90" t="str">
         <f>VLOOKUP($F194,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -22236,7 +21934,7 @@
         <v>0.13</v>
       </c>
       <c r="W194" s="224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X194" s="23">
         <v>44938</v>
@@ -22246,11 +21944,9 @@
       </c>
       <c r="Z194" s="20"/>
       <c r="AA194" s="20"/>
-      <c r="AB194" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB194" s="168"/>
       <c r="AC194" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD194" s="219">
         <v>1</v>
@@ -22262,7 +21958,7 @@
     <row r="195" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="189"/>
       <c r="B195" s="92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C195" s="90" t="str">
         <f>VLOOKUP($F195,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -22334,7 +22030,7 @@
         <v>0.13</v>
       </c>
       <c r="W195" s="224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X195" s="23">
         <v>44938</v>
@@ -22344,9 +22040,7 @@
       </c>
       <c r="Z195" s="20"/>
       <c r="AA195" s="20"/>
-      <c r="AB195" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB195" s="168"/>
       <c r="AC195" s="8" t="str">
         <f>IF(VLOOKUP($W195,'Havi béradatok'!$B:$E,2,FALSE)=H195,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -22363,7 +22057,7 @@
     <row r="196" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="189"/>
       <c r="B196" s="92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C196" s="90" t="str">
         <f>VLOOKUP($F196,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -22435,7 +22129,7 @@
         <v>0.13</v>
       </c>
       <c r="W196" s="224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X196" s="23">
         <v>44938</v>
@@ -22445,9 +22139,7 @@
       </c>
       <c r="Z196" s="20"/>
       <c r="AA196" s="20"/>
-      <c r="AB196" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB196" s="168"/>
       <c r="AC196" s="8" t="str">
         <f>IF(VLOOKUP($W196,'Havi béradatok'!$B:$E,2,FALSE)=H196,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -22464,7 +22156,7 @@
     <row r="197" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="189"/>
       <c r="B197" s="92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C197" s="90" t="str">
         <f>VLOOKUP($F197,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -22536,7 +22228,7 @@
         <v>0.13</v>
       </c>
       <c r="W197" s="224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X197" s="23">
         <v>45001</v>
@@ -22551,7 +22243,7 @@
     <row r="198" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="189"/>
       <c r="B198" s="92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C198" s="90" t="str">
         <f>VLOOKUP($F198,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -22623,7 +22315,7 @@
         <v>0.13</v>
       </c>
       <c r="W198" s="224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X198" s="23">
         <v>45001</v>
@@ -22638,7 +22330,7 @@
     <row r="199" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="189"/>
       <c r="B199" s="92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C199" s="90" t="str">
         <f>VLOOKUP($F199,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -22710,7 +22402,7 @@
         <v>0.13</v>
       </c>
       <c r="W199" s="224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X199" s="23">
         <v>45001</v>
@@ -22727,7 +22419,7 @@
         <v>1</v>
       </c>
       <c r="B200" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C200" s="90" t="str">
         <f>VLOOKUP($F200,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -22807,16 +22499,14 @@
       </c>
       <c r="Z200" s="20"/>
       <c r="AA200" s="20"/>
-      <c r="AB200" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB200" s="168"/>
     </row>
     <row r="201" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="208">
         <v>1</v>
       </c>
       <c r="B201" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C201" s="90" t="str">
         <f>VLOOKUP($F201,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -22896,16 +22586,14 @@
       </c>
       <c r="Z201" s="20"/>
       <c r="AA201" s="20"/>
-      <c r="AB201" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB201" s="168"/>
     </row>
     <row r="202" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="208">
         <v>1</v>
       </c>
       <c r="B202" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C202" s="90" t="str">
         <f>VLOOKUP($F202,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -22985,16 +22673,14 @@
       </c>
       <c r="Z202" s="20"/>
       <c r="AA202" s="20"/>
-      <c r="AB202" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB202" s="168"/>
     </row>
     <row r="203" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="208">
         <v>1</v>
       </c>
       <c r="B203" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C203" s="90" t="str">
         <f>VLOOKUP($F203,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -23074,16 +22760,14 @@
       </c>
       <c r="Z203" s="20"/>
       <c r="AA203" s="20"/>
-      <c r="AB203" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB203" s="168"/>
     </row>
     <row r="204" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="208">
         <v>1</v>
       </c>
       <c r="B204" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C204" s="90" t="str">
         <f>VLOOKUP($F204,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -23163,16 +22847,14 @@
       </c>
       <c r="Z204" s="20"/>
       <c r="AA204" s="20"/>
-      <c r="AB204" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB204" s="168"/>
     </row>
     <row r="205" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="208">
         <v>1</v>
       </c>
       <c r="B205" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C205" s="90" t="str">
         <f>VLOOKUP($F205,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -23252,16 +22934,14 @@
       </c>
       <c r="Z205" s="20"/>
       <c r="AA205" s="20"/>
-      <c r="AB205" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB205" s="168"/>
     </row>
     <row r="206" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="208">
         <v>1</v>
       </c>
       <c r="B206" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C206" s="90" t="str">
         <f>VLOOKUP($F206,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -23341,16 +23021,14 @@
       </c>
       <c r="Z206" s="20"/>
       <c r="AA206" s="20"/>
-      <c r="AB206" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB206" s="168"/>
     </row>
     <row r="207" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="208">
         <v>1</v>
       </c>
       <c r="B207" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C207" s="90" t="str">
         <f>VLOOKUP($F207,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -23430,16 +23108,14 @@
       </c>
       <c r="Z207" s="20"/>
       <c r="AA207" s="20"/>
-      <c r="AB207" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB207" s="168"/>
     </row>
     <row r="208" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="208">
         <v>1</v>
       </c>
       <c r="B208" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C208" s="90" t="str">
         <f>VLOOKUP($F208,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -23526,7 +23202,7 @@
         <v>1</v>
       </c>
       <c r="B209" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C209" s="90" t="str">
         <f>VLOOKUP($F209,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -23606,16 +23282,14 @@
       </c>
       <c r="Z209" s="20"/>
       <c r="AA209" s="20"/>
-      <c r="AB209" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB209" s="168"/>
     </row>
     <row r="210" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="208">
         <v>1</v>
       </c>
       <c r="B210" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C210" s="90" t="str">
         <f>VLOOKUP($F210,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -23695,14 +23369,12 @@
       </c>
       <c r="Z210" s="20"/>
       <c r="AA210" s="20"/>
-      <c r="AB210" s="168">
-        <v>4</v>
-      </c>
+      <c r="AB210" s="168"/>
     </row>
     <row r="211" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="189"/>
       <c r="B211" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C211" s="90" t="str">
         <f>VLOOKUP($F211,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -23782,14 +23454,12 @@
       </c>
       <c r="Z211" s="20"/>
       <c r="AA211" s="20"/>
-      <c r="AB211" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB211" s="168"/>
     </row>
     <row r="212" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="189"/>
       <c r="B212" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C212" s="90" t="str">
         <f>VLOOKUP($F212,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -23861,7 +23531,7 @@
         <v>0.13</v>
       </c>
       <c r="W212" s="224" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X212" s="23">
         <v>44734</v>
@@ -23871,9 +23541,7 @@
       </c>
       <c r="Z212" s="20"/>
       <c r="AA212" s="20"/>
-      <c r="AB212" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB212" s="168"/>
       <c r="AC212" s="212" t="e">
         <v>#N/A</v>
       </c>
@@ -23887,7 +23555,7 @@
     <row r="213" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="189"/>
       <c r="B213" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C213" s="90" t="str">
         <f>VLOOKUP($F213,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -23959,7 +23627,7 @@
         <v>0.13</v>
       </c>
       <c r="W213" s="224" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X213" s="23">
         <v>44734</v>
@@ -23969,23 +23637,21 @@
       </c>
       <c r="Z213" s="20"/>
       <c r="AA213" s="20"/>
-      <c r="AB213" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB213" s="168"/>
       <c r="AC213" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD213" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="AD213" s="211" t="s">
-        <v>250</v>
-      </c>
       <c r="AE213" s="211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="214" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="189"/>
       <c r="B214" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C214" s="90" t="str">
         <f>VLOOKUP($F214,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -24057,7 +23723,7 @@
         <v>0.13</v>
       </c>
       <c r="W214" s="224" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X214" s="23">
         <v>44936</v>
@@ -24067,11 +23733,9 @@
       </c>
       <c r="Z214" s="20"/>
       <c r="AA214" s="20"/>
-      <c r="AB214" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB214" s="168"/>
       <c r="AC214" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD214" s="211">
         <v>0</v>
@@ -24083,7 +23747,7 @@
     <row r="215" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="189"/>
       <c r="B215" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C215" s="90" t="str">
         <f>VLOOKUP($F215,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -24155,7 +23819,7 @@
         <v>0.13</v>
       </c>
       <c r="W215" s="224" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X215" s="23">
         <v>44936</v>
@@ -24165,9 +23829,7 @@
       </c>
       <c r="Z215" s="20"/>
       <c r="AA215" s="20"/>
-      <c r="AB215" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB215" s="168"/>
       <c r="AC215" s="8" t="str">
         <f>IF(VLOOKUP($W215,'Havi béradatok'!$B:$E,2,FALSE)=H215,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -24184,7 +23846,7 @@
     <row r="216" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="189"/>
       <c r="B216" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C216" s="90" t="str">
         <f>VLOOKUP($F216,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -24256,7 +23918,7 @@
         <v>0.13</v>
       </c>
       <c r="W216" s="224" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X216" s="23">
         <v>44936</v>
@@ -24266,9 +23928,7 @@
       </c>
       <c r="Z216" s="20"/>
       <c r="AA216" s="20"/>
-      <c r="AB216" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB216" s="168"/>
       <c r="AC216" s="8" t="str">
         <f>IF(VLOOKUP($W216,'Havi béradatok'!$B:$E,2,FALSE)=H216,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -24285,7 +23945,7 @@
     <row r="217" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="189"/>
       <c r="B217" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C217" s="90" t="str">
         <f>VLOOKUP($F217,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -24357,7 +24017,7 @@
         <v>0.13</v>
       </c>
       <c r="W217" s="224" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X217" s="23">
         <v>44936</v>
@@ -24372,7 +24032,7 @@
     <row r="218" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="189"/>
       <c r="B218" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C218" s="90" t="str">
         <f>VLOOKUP($F218,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -24444,7 +24104,7 @@
         <v>0.13</v>
       </c>
       <c r="W218" s="224" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X218" s="23">
         <v>44936</v>
@@ -24459,7 +24119,7 @@
     <row r="219" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="189"/>
       <c r="B219" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C219" s="90" t="str">
         <f>VLOOKUP($F219,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -24531,7 +24191,7 @@
         <v>0.13</v>
       </c>
       <c r="W219" s="224" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X219" s="23">
         <v>44936</v>
@@ -24546,7 +24206,7 @@
     <row r="220" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="189"/>
       <c r="B220" s="92" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C220" s="90" t="str">
         <f>VLOOKUP($F220,Admin!$A$16:$E$19,2,FALSE)</f>
@@ -24618,7 +24278,7 @@
         <v>0.13</v>
       </c>
       <c r="W220" s="224" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X220" s="23">
         <v>44872</v>
@@ -24628,9 +24288,7 @@
       </c>
       <c r="Z220" s="20"/>
       <c r="AA220" s="20"/>
-      <c r="AB220" s="168">
-        <v>1</v>
-      </c>
+      <c r="AB220" s="168"/>
       <c r="AC220" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -24726,9 +24384,7 @@
       </c>
       <c r="Z221" s="20"/>
       <c r="AA221" s="20"/>
-      <c r="AB221" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB221" s="168"/>
     </row>
     <row r="222" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="208">
@@ -24815,9 +24471,7 @@
       </c>
       <c r="Z222" s="20"/>
       <c r="AA222" s="20"/>
-      <c r="AB222" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB222" s="168"/>
     </row>
     <row r="223" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="208">
@@ -24904,9 +24558,7 @@
       </c>
       <c r="Z223" s="20"/>
       <c r="AA223" s="20"/>
-      <c r="AB223" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB223" s="168"/>
     </row>
     <row r="224" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="208">
@@ -24993,9 +24645,7 @@
       </c>
       <c r="Z224" s="20"/>
       <c r="AA224" s="20"/>
-      <c r="AB224" s="168">
-        <v>2</v>
-      </c>
+      <c r="AB224" s="168"/>
     </row>
     <row r="225" spans="1:31" s="168" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="208">
@@ -25082,9 +24732,6 @@
       </c>
       <c r="Z225" s="20"/>
       <c r="AA225" s="20"/>
-      <c r="AB225" s="168">
-        <v>2</v>
-      </c>
     </row>
     <row r="226" spans="1:31" s="168" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="208">
@@ -25171,9 +24818,6 @@
       </c>
       <c r="Z226" s="20"/>
       <c r="AA226" s="20"/>
-      <c r="AB226" s="168">
-        <v>2</v>
-      </c>
     </row>
     <row r="227" spans="1:31" s="168" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="208">
@@ -25260,9 +24904,6 @@
       </c>
       <c r="Z227" s="20"/>
       <c r="AA227" s="20"/>
-      <c r="AB227" s="168">
-        <v>2</v>
-      </c>
     </row>
     <row r="228" spans="1:31" s="168" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="208">
@@ -25349,9 +24990,6 @@
       </c>
       <c r="Z228" s="20"/>
       <c r="AA228" s="20"/>
-      <c r="AB228" s="168">
-        <v>2</v>
-      </c>
     </row>
     <row r="229" spans="1:31" s="168" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="208">
@@ -25438,9 +25076,6 @@
       </c>
       <c r="Z229" s="20"/>
       <c r="AA229" s="20"/>
-      <c r="AB229" s="168">
-        <v>2</v>
-      </c>
     </row>
     <row r="230" spans="1:31" s="168" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="208">
@@ -25527,9 +25162,6 @@
       </c>
       <c r="Z230" s="20"/>
       <c r="AA230" s="20"/>
-      <c r="AB230" s="168">
-        <v>2</v>
-      </c>
     </row>
     <row r="231" spans="1:31" s="168" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="208">
@@ -25616,9 +25248,6 @@
       </c>
       <c r="Z231" s="20"/>
       <c r="AA231" s="20"/>
-      <c r="AB231" s="168">
-        <v>2</v>
-      </c>
     </row>
     <row r="232" spans="1:31" s="168" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="208">
@@ -25705,9 +25334,6 @@
       </c>
       <c r="Z232" s="20"/>
       <c r="AA232" s="20"/>
-      <c r="AB232" s="168">
-        <v>5</v>
-      </c>
     </row>
     <row r="233" spans="1:31" s="168" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="167"/>
@@ -25792,9 +25418,6 @@
       </c>
       <c r="Z233" s="20"/>
       <c r="AA233" s="20"/>
-      <c r="AB233" s="168">
-        <v>2</v>
-      </c>
     </row>
     <row r="234" spans="1:31" s="168" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="167"/>
@@ -25871,7 +25494,7 @@
         <v>0.13</v>
       </c>
       <c r="W234" s="224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X234" s="23">
         <v>44712</v>
@@ -25881,9 +25504,6 @@
       </c>
       <c r="Z234" s="20"/>
       <c r="AA234" s="20"/>
-      <c r="AB234" s="168">
-        <v>2</v>
-      </c>
       <c r="AC234" s="211" t="e">
         <v>#N/A</v>
       </c>
@@ -25969,7 +25589,7 @@
         <v>0.13</v>
       </c>
       <c r="W235" s="224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X235" s="23">
         <v>44890</v>
@@ -25979,17 +25599,14 @@
       </c>
       <c r="Z235" s="20"/>
       <c r="AA235" s="20"/>
-      <c r="AB235" s="168">
-        <v>2</v>
-      </c>
       <c r="AC235" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD235" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="AD235" s="211" t="s">
-        <v>250</v>
-      </c>
       <c r="AE235" s="211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="236" spans="1:31" s="168" customFormat="1" x14ac:dyDescent="0.25">
@@ -26067,7 +25684,7 @@
         <v>0.13</v>
       </c>
       <c r="W236" s="224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X236" s="23">
         <v>44949</v>
@@ -26077,11 +25694,8 @@
       </c>
       <c r="Z236" s="20"/>
       <c r="AA236" s="20"/>
-      <c r="AB236" s="168">
-        <v>2</v>
-      </c>
       <c r="AC236" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD236" s="211">
         <v>0</v>
@@ -26113,7 +25727,7 @@
         <v>174</v>
       </c>
       <c r="H237" s="161" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I237" s="90" t="str">
         <f>VLOOKUP($F237,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -26165,7 +25779,7 @@
         <v>0.13</v>
       </c>
       <c r="W237" s="224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X237" s="23">
         <v>44949</v>
@@ -26175,9 +25789,6 @@
       </c>
       <c r="Z237" s="20"/>
       <c r="AA237" s="20"/>
-      <c r="AB237" s="168">
-        <v>2</v>
-      </c>
       <c r="AC237" s="8" t="str">
         <f>IF(VLOOKUP($W237,'Havi béradatok'!$B:$E,2,FALSE)=H237,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -26214,7 +25825,7 @@
         <v>174</v>
       </c>
       <c r="H238" s="161" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I238" s="90" t="str">
         <f>VLOOKUP($F238,Admin!$A$16:$E$19,5,FALSE)</f>
@@ -26266,7 +25877,7 @@
         <v>0.13</v>
       </c>
       <c r="W238" s="224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X238" s="23">
         <v>44949</v>
@@ -26276,9 +25887,6 @@
       </c>
       <c r="Z238" s="20"/>
       <c r="AA238" s="20"/>
-      <c r="AB238" s="168">
-        <v>2</v>
-      </c>
       <c r="AC238" s="8" t="str">
         <f>IF(VLOOKUP($W238,'Havi béradatok'!$B:$E,2,FALSE)=H238,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -26367,7 +25975,7 @@
         <v>0.13</v>
       </c>
       <c r="W239" s="224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X239" s="23">
         <v>44949</v>
@@ -26453,7 +26061,7 @@
         <v>0.13</v>
       </c>
       <c r="W240" s="224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X240" s="23">
         <v>44949</v>
@@ -26539,7 +26147,7 @@
         <v>0.13</v>
       </c>
       <c r="W241" s="224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X241" s="23">
         <v>44949</v>
@@ -26625,7 +26233,7 @@
         <v>0.13</v>
       </c>
       <c r="W242" s="224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X242" s="23">
         <v>44949</v>
@@ -27036,7 +26644,7 @@
       <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A4:AV400" xr:uid="{DBD7B3AE-9E29-46BD-8AB6-FD68DC6B9274}">
+      <autoFilter ref="A4:AV400" xr:uid="{A06C0596-8CE6-49FC-AECF-7364FF9B991D}">
         <filterColumn colId="6">
           <filters>
             <filter val="2019.06"/>
@@ -27656,7 +27264,7 @@
       <selection activeCell="L44" sqref="L44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A41:N455" xr:uid="{25F493F9-2822-4A27-836D-0FCA4B4C888E}"/>
+      <autoFilter ref="A41:N455" xr:uid="{1360C078-BAD9-4589-9BCD-235E121DE471}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -28691,22 +28299,22 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -28930,27 +28538,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="214" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="214" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="214" t="s">
+      <c r="C1" s="214" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="214" t="s">
-        <v>241</v>
-      </c>
       <c r="D1" s="214" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="214" t="s">
         <v>237</v>
-      </c>
-      <c r="E1" s="214" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="234" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="215" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="89" t="s">
         <v>195</v>
@@ -28964,10 +28572,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="234" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="89" t="s">
         <v>194</v>
@@ -28981,10 +28589,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="234" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B4" s="215" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>193</v>
@@ -28998,10 +28606,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="234" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="215" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="89" t="s">
         <v>194</v>
@@ -29015,10 +28623,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="234" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" s="215" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="89" t="s">
         <v>194</v>
@@ -29032,10 +28640,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="234" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" s="215" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="89" t="s">
         <v>193</v>
@@ -29049,13 +28657,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="234" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" s="215" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="216">
         <v>700000</v>
@@ -29066,13 +28674,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="234" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="215" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="89" t="s">
         <v>203</v>
-      </c>
-      <c r="B9" s="215" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>204</v>
       </c>
       <c r="D9" s="216">
         <v>555499</v>
@@ -29083,13 +28691,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="234" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="215" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="216">
         <v>375000</v>
@@ -29100,13 +28708,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="234" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="215" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D11" s="216">
         <v>202400</v>
@@ -29117,13 +28725,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="234" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="215" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="89" t="s">
         <v>206</v>
-      </c>
-      <c r="B12" s="215" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>207</v>
       </c>
       <c r="D12" s="216">
         <v>1150000</v>
@@ -29134,10 +28742,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="234" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="215" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" s="89" t="s">
         <v>195</v>
@@ -29154,10 +28762,10 @@
         <v>192</v>
       </c>
       <c r="B14" s="215" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" s="216">
         <v>721000</v>
@@ -29168,13 +28776,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="234" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="215" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="215" t="s">
-        <v>248</v>
-      </c>
       <c r="C15" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="216">
         <v>150800</v>
